--- a/Assets/StreamingAssets/GameData/TestTable.xlsx
+++ b/Assets/StreamingAssets/GameData/TestTable.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>tab颜色</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>物质</t>
+  </si>
+  <si>
+    <t>#000001</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>#000002</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>#000003</t>
+  </si>
+  <si>
+    <t>#000004</t>
+  </si>
+  <si>
+    <t>#000005</t>
+  </si>
+  <si>
+    <t>#000006</t>
+  </si>
+  <si>
+    <t>#000007</t>
+  </si>
+  <si>
+    <t>#000008</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40,11 +83,12 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,6 +96,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,12 +104,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,6 +119,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,6 +127,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,6 +135,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,6 +143,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,12 +151,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +166,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,6 +174,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,12 +182,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,36 +197,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -553,10 +609,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
@@ -565,10 +621,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
@@ -577,10 +633,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
@@ -589,10 +645,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
@@ -601,10 +657,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
@@ -613,168 +669,18 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,17 +994,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1111,6 +1074,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1091,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
